--- a/result/with_base/124/arousal/s13_2.xlsx
+++ b/result/with_base/124/arousal/s13_2.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.94921875</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.8526785671710968</v>
       </c>
       <c r="C2" t="n">
-        <v>41687.306640625</v>
+        <v>11308.62255859375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8538636348464272</v>
+        <v>0.8534663880572599</v>
       </c>
       <c r="E2" t="n">
-        <v>41689.20490056818</v>
+        <v>11308.65636488971</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.90625</v>
       </c>
       <c r="C3" t="n">
-        <v>40887.353515625</v>
+        <v>11006.87353515625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9136363701386885</v>
+        <v>0.8915441176470589</v>
       </c>
       <c r="E3" t="n">
-        <v>40887.19034090909</v>
+        <v>11006.30991498162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.90625</v>
       </c>
       <c r="C4" t="n">
-        <v>40100.61328125</v>
+        <v>10708.22119140625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.929886362769387</v>
+        <v>0.9147846628637875</v>
       </c>
       <c r="E4" t="n">
-        <v>40099.51100852273</v>
+        <v>10707.22334558824</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9190848171710968</v>
       </c>
       <c r="C5" t="n">
-        <v>39325.142578125</v>
+        <v>10414.3134765625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9534090865742076</v>
+        <v>0.9102547273916357</v>
       </c>
       <c r="E5" t="n">
-        <v>39323.42720170454</v>
+        <v>10413.58260569853</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="C6" t="n">
-        <v>38562.1875</v>
+        <v>10125.5087890625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9655681848526001</v>
+        <v>0.9453125</v>
       </c>
       <c r="E6" t="n">
-        <v>38560.48011363636</v>
+        <v>10124.41693474265</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9268973171710968</v>
       </c>
       <c r="C7" t="n">
-        <v>37811.94921875</v>
+        <v>9843.20263671875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9590908993374218</v>
+        <v>0.9518119762925541</v>
       </c>
       <c r="E7" t="n">
-        <v>37810.80646306818</v>
+        <v>9842.473403033087</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C8" t="n">
-        <v>37074.521484375</v>
+        <v>9567.59326171875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9728409160267223</v>
+        <v>0.9541754196671879</v>
       </c>
       <c r="E8" t="n">
-        <v>37073.85369318182</v>
+        <v>9566.63436351103</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C9" t="n">
-        <v>36351.888671875</v>
+        <v>9298.3544921875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9725000099702314</v>
+        <v>0.9600183823529411</v>
       </c>
       <c r="E9" t="n">
-        <v>36350.45951704546</v>
+        <v>9297.099264705883</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9235491156578064</v>
       </c>
       <c r="C10" t="n">
-        <v>35641.08203125</v>
+        <v>9035.00830078125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9689772779291327</v>
+        <v>0.9726234253715066</v>
       </c>
       <c r="E10" t="n">
-        <v>35640.19815340909</v>
+        <v>9033.977079503677</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9397321343421936</v>
       </c>
       <c r="C11" t="n">
-        <v>34944.408203125</v>
+        <v>8778.248046875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9770454655994069</v>
+        <v>0.9708508393343758</v>
       </c>
       <c r="E11" t="n">
-        <v>34942.75071022727</v>
+        <v>8777.3984375</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34258.689453125</v>
+        <v>8527.92919921875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9893181865865533</v>
+        <v>0.9644826685681063</v>
       </c>
       <c r="E12" t="n">
-        <v>34257.73828125</v>
+        <v>8527.281537224264</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9196428656578064</v>
       </c>
       <c r="C13" t="n">
-        <v>33588.146484375</v>
+        <v>8284.43505859375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9753409190611406</v>
+        <v>0.9676995803328121</v>
       </c>
       <c r="E13" t="n">
-        <v>33586.17897727273</v>
+        <v>8283.287281709559</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9525669515132904</v>
       </c>
       <c r="C14" t="n">
-        <v>32927.875</v>
+        <v>8046.1455078125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9872727394104004</v>
+        <v>0.9754464275696698</v>
       </c>
       <c r="E14" t="n">
-        <v>32926.67151988636</v>
+        <v>8045.463579963235</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9352678656578064</v>
       </c>
       <c r="C15" t="n">
-        <v>32280.3173828125</v>
+        <v>7814.720458984375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9890909194946289</v>
+        <v>0.9744616606656242</v>
       </c>
       <c r="E15" t="n">
-        <v>32279.50550426136</v>
+        <v>7813.864085477941</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31645.2724609375</v>
+        <v>7588.85400390625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9905681881037626</v>
+        <v>0.9777442216873169</v>
       </c>
       <c r="E16" t="n">
-        <v>31644.58238636364</v>
+        <v>7588.034696691177</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C17" t="n">
-        <v>31022.455078125</v>
+        <v>7368.91845703125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.981931827285073</v>
+        <v>0.9825367647058824</v>
       </c>
       <c r="E17" t="n">
-        <v>31021.63245738636</v>
+        <v>7368.07120289522</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C18" t="n">
-        <v>30410.8046875</v>
+        <v>7154.615234375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9841780452167287</v>
       </c>
       <c r="E18" t="n">
-        <v>30410</v>
+        <v>7153.884507123162</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9313616156578064</v>
       </c>
       <c r="C19" t="n">
-        <v>29811.2861328125</v>
+        <v>6946.31494140625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9853409203616056</v>
+        <v>0.9772846628637875</v>
       </c>
       <c r="E19" t="n">
-        <v>29810.36239346591</v>
+        <v>6945.371323529412</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9481026828289032</v>
       </c>
       <c r="C20" t="n">
-        <v>29222.2744140625</v>
+        <v>6742.83349609375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.9925814060603871</v>
       </c>
       <c r="E20" t="n">
-        <v>29221.70880681818</v>
+        <v>6742.156508501838</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C21" t="n">
-        <v>28644.8466796875</v>
+        <v>6545.231689453125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9820115531192106</v>
       </c>
       <c r="E21" t="n">
-        <v>28644.2734375</v>
+        <v>6544.476993336397</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C22" t="n">
-        <v>28078.5703125</v>
+        <v>6352.614013671875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9829306707662695</v>
       </c>
       <c r="E22" t="n">
-        <v>28077.76402698864</v>
+        <v>6351.962431066177</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C23" t="n">
-        <v>27522.2265625</v>
+        <v>6165.17041015625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E23" t="n">
-        <v>27521.78142755682</v>
+        <v>6164.540010340073</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C24" t="n">
-        <v>26976.783203125</v>
+        <v>5983.041259765625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9895614490789526</v>
       </c>
       <c r="E24" t="n">
-        <v>26976.36416903409</v>
+        <v>5982.184599034927</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C25" t="n">
-        <v>26441.953125</v>
+        <v>5805.718505859375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9727547273916357</v>
       </c>
       <c r="E25" t="n">
-        <v>26441.32954545454</v>
+        <v>5804.825539981618</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9352678656578064</v>
       </c>
       <c r="C26" t="n">
-        <v>25916.7568359375</v>
+        <v>5632.9111328125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9744616606656242</v>
       </c>
       <c r="E26" t="n">
-        <v>25916.27947443182</v>
+        <v>5632.226418887868</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C27" t="n">
-        <v>25402.400390625</v>
+        <v>5464.704345703125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9859506312538596</v>
       </c>
       <c r="E27" t="n">
-        <v>25401.22780539773</v>
+        <v>5464.14412913603</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9525669515132904</v>
       </c>
       <c r="C28" t="n">
-        <v>24896.6181640625</v>
+        <v>5301.2275390625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E28" t="n">
-        <v>24895.90713778409</v>
+        <v>5300.678481158088</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C29" t="n">
-        <v>24400.919921875</v>
+        <v>5142.155517578125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9961922273916357</v>
       </c>
       <c r="E29" t="n">
-        <v>24400.16157670454</v>
+        <v>5141.69482421875</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9654017984867096</v>
       </c>
       <c r="C30" t="n">
-        <v>23914.2392578125</v>
+        <v>4987.4638671875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9934348744504592</v>
       </c>
       <c r="E30" t="n">
-        <v>23913.73739346591</v>
+        <v>4987.112333409927</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C31" t="n">
-        <v>23437.1181640625</v>
+        <v>4837.214599609375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9902272820472717</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E31" t="n">
-        <v>23436.64808238636</v>
+        <v>4836.758415670956</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C32" t="n">
-        <v>22969.314453125</v>
+        <v>4690.80029296875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9947478981579051</v>
       </c>
       <c r="E32" t="n">
-        <v>22968.47247869318</v>
+        <v>4690.467486213235</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C33" t="n">
-        <v>22510.1181640625</v>
+        <v>4548.66162109375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9870010509210474</v>
       </c>
       <c r="E33" t="n">
-        <v>22509.26811079546</v>
+        <v>4548.276683134191</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C34" t="n">
-        <v>22059.259765625</v>
+        <v>4410.297119140625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E34" t="n">
-        <v>22058.73029119318</v>
+        <v>4409.924747242647</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C35" t="n">
-        <v>21617.6318359375</v>
+        <v>4275.781005859375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E35" t="n">
-        <v>21616.77681107954</v>
+        <v>4275.414924172794</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C36" t="n">
-        <v>21184.0400390625</v>
+        <v>4144.996826171875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E36" t="n">
-        <v>21183.22620738636</v>
+        <v>4144.66951976103</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C37" t="n">
-        <v>20758.1865234375</v>
+        <v>4017.944946289062</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9906775215092827</v>
       </c>
       <c r="E37" t="n">
-        <v>20757.88778409091</v>
+        <v>4017.598072725184</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9486607015132904</v>
       </c>
       <c r="C38" t="n">
-        <v>20341.041015625</v>
+        <v>3894.398559570312</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.984243697979871</v>
       </c>
       <c r="E38" t="n">
-        <v>20340.61239346591</v>
+        <v>3894.062284581802</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C39" t="n">
-        <v>19931.7060546875</v>
+        <v>3774.232299804688</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E39" t="n">
-        <v>19931.28622159091</v>
+        <v>3773.939481847427</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.95703125</v>
       </c>
       <c r="C40" t="n">
-        <v>19530.12109375</v>
+        <v>3657.419677734375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E40" t="n">
-        <v>19529.67418323864</v>
+        <v>3657.195484834559</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19136.341796875</v>
+        <v>3543.98828125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E41" t="n">
-        <v>19135.73153409091</v>
+        <v>3543.737161075368</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9453125</v>
       </c>
       <c r="C42" t="n">
-        <v>18749.673828125</v>
+        <v>3433.931762695312</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9806328766486224</v>
       </c>
       <c r="E42" t="n">
-        <v>18749.27556818182</v>
+        <v>3433.517807904412</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C43" t="n">
-        <v>18370.728515625</v>
+        <v>3326.589111328125</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E43" t="n">
-        <v>18370.14524147727</v>
+        <v>3326.333797679228</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9453125</v>
       </c>
       <c r="C44" t="n">
-        <v>17998.69921875</v>
+        <v>3222.660522460938</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9772846628637875</v>
       </c>
       <c r="E44" t="n">
-        <v>17998.23419744318</v>
+        <v>3222.258473115809</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C45" t="n">
-        <v>17633.9912109375</v>
+        <v>3121.248779296875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.987854515804964</v>
       </c>
       <c r="E45" t="n">
-        <v>17633.41477272727</v>
+        <v>3121.060216567096</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C46" t="n">
-        <v>17276.0517578125</v>
+        <v>3022.936767578125</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9925157568034004</v>
       </c>
       <c r="E46" t="n">
-        <v>17275.52610085227</v>
+        <v>3022.731474034927</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C47" t="n">
-        <v>16924.8837890625</v>
+        <v>2927.507080078125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E47" t="n">
-        <v>16924.46360085227</v>
+        <v>2927.234877642463</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C48" t="n">
-        <v>16580.4189453125</v>
+        <v>2834.671875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E48" t="n">
-        <v>16580.07244318182</v>
+        <v>2834.472627527573</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.953125</v>
       </c>
       <c r="C49" t="n">
-        <v>16242.62158203125</v>
+        <v>2744.535766601562</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E49" t="n">
-        <v>16242.24609375</v>
+        <v>2744.362117991728</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C50" t="n">
-        <v>15911.22998046875</v>
+        <v>2657.037353515625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9979545474052429</v>
+        <v>0.9875262590015635</v>
       </c>
       <c r="E50" t="n">
-        <v>15910.86505681818</v>
+        <v>2656.867331112132</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,839 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.94921875</v>
       </c>
       <c r="C51" t="n">
-        <v>15585.98046875</v>
+        <v>2572.138305664062</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.9755120803328121</v>
       </c>
       <c r="E51" t="n">
-        <v>15585.79563210227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15267.62060546875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15266.97727272727</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14954.78271484375</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14954.22780539773</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14648.10107421875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.994772732257843</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14647.46466619318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14346.92822265625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14346.54376775568</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14051.7265625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14051.39426491477</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13762.14990234375</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13761.87322443182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13478.125</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13477.90323153409</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13199.6064453125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13199.39728338068</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12926.4658203125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12926.24103338068</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12658.55224609375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12658.30912642045</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12395.8544921875</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9926136406985197</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12395.58185369318</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12138.283203125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12137.88734019886</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11885.45703125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11885.15403053977</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11637.62109375</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11637.28746448864</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11394.3798828125</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11394.19451349432</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11156.0029296875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11155.78773082386</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10922.18701171875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10921.98828125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10693.03857421875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10692.72647372159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10468.1611328125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10467.90589488636</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10247.78955078125</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10247.45561079545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10031.43798828125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10031.26686789773</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9819.484375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9819.30459872159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9611.5908203125</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9611.453568892046</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9407.7880859375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9407.646750710228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9208.0693359375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9207.816228693182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9012.09130859375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9011.897993607954</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8819.97119140625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9936363697052002</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8819.81338778409</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8631.6328125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8631.465376420454</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8446.9775390625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8446.83114346591</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8265.92138671875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8265.815252130682</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9885237350026083</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2592592592592592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9885237350026083</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.004694835680751174</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9885237350026083</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.004694835680751174</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9885237350026083</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8148148148148148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.009389671361502348</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9885237350026083</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8148148148148148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.009389671361502348</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9885237350026083</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01408450704225352</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9885237350026083</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01408450704225352</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9885237350026083</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9629629629629629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.2582159624413146</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9885237350026083</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9629629629629629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2582159624413146</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9885237350026083</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9885237350026083</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9766127629977395</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9766127629977395</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8403755868544601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9766127629977395</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.863849765258216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9766127629977395</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8732394366197183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9766127629977395</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9859154929577465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9766127629977395</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9859154929577465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9766127629977395</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9906103286384976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9766127629977395</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9906103286384976</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9766127629977395</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9953051643192489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9766127629977395</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9953051643192489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9766127629977395</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9766127629977395</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>2571.921702665441</v>
       </c>
     </row>
   </sheetData>
